--- a/kartik1.xlsx
+++ b/kartik1.xlsx
@@ -5,22 +5,98 @@
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
-  <x:sheets/>
+  <x:sheets>
+    <x:sheet name="SheetMap" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Login Page" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <x:sheet name="Lookup" sheetId="5" r:id="rId5"/>
+  </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <x:si>
+    <x:t>Login Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SheetMap</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestsuiteName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ObjectName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Url</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UserId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>new</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Case - Search</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Iteration Value</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Field Names</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Search By</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Person</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lookup Sheet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestSuiteName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Object</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ParentField</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Iteration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExcelSheet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SheetName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sheet1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lookup</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
+  <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
+    <x:numFmt numFmtId="1" formatCode="@"/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="8">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -28,13 +104,74 @@
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF0000FF"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:u val="single"/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF0000FF"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF008000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF0000FF"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:u val="single"/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF0000FF"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
   </x:fonts>
-  <x:fills count="2">
+  <x:fills count="3">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
+        <x:bgColor rgb="FFFFFF00"/>
+      </x:patternFill>
     </x:fill>
   </x:fills>
   <x:borders count="1">
@@ -56,13 +193,76 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="10">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="1" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="10">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -71,6 +271,17 @@
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
 </x:styleSheet>
+</file>
+
+<file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B4" totalsRowShown="0">
+  <x:autoFilter ref="A1:B4"/>
+  <x:tableColumns count="2">
+    <x:tableColumn id="1" name="ExcelSheet"/>
+    <x:tableColumn id="2" name="SheetName"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,4 +565,263 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B4"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="12.700625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.410625" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="9" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="9" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="9" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="A2" location="'Login Page'!A1" tooltip="Go to Login Page" display="Login Page"/>
+    <x:hyperlink ref="A3" location="'Sheet1'!A1" tooltip="Go to Sheet1" display="Sheet1"/>
+    <x:hyperlink ref="A4" location="'Lookup'!A1" tooltip="Go to Lookup" display="Lookup"/>
+  </x:hyperlinks>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId8"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:F3"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s"/>
+      <x:c r="C1" s="2" t="s"/>
+      <x:c r="D1" s="2" t="s"/>
+      <x:c r="E1" s="2" t="s"/>
+      <x:c r="F1" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D2" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E2" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s"/>
+      <x:c r="D3" s="2" t="s"/>
+      <x:c r="E3" s="2" t="s"/>
+      <x:c r="F3" s="2" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="F1" location="'SheetMap'!A1" tooltip="Go to SheetMap" display="SheetMap"/>
+  </x:hyperlinks>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:F4"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="3" width="9.140625" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s"/>
+      <x:c r="C1" s="2" t="s"/>
+      <x:c r="D1" s="2" t="s"/>
+      <x:c r="E1" s="2" t="s"/>
+      <x:c r="F1" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C2" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s"/>
+      <x:c r="E2" s="2" t="s"/>
+      <x:c r="F2" s="2" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s"/>
+      <x:c r="C3" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="2" t="s"/>
+      <x:c r="B4" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s"/>
+      <x:c r="D4" s="2" t="s"/>
+      <x:c r="E4" s="2" t="s"/>
+      <x:c r="F4" s="2" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="F1" location="'SheetMap'!A1" tooltip="Go to SheetMap" display="SheetMap"/>
+  </x:hyperlinks>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:F2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="7" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s"/>
+      <x:c r="C1" s="2" t="s"/>
+      <x:c r="D1" s="2" t="s"/>
+      <x:c r="E1" s="2" t="s"/>
+      <x:c r="F1" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="8" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B2" s="8" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C2" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D2" s="8" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E2" s="8" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="F1" location="'SheetMap'!A1" tooltip="Go to SheetMap" display="SheetMap"/>
+  </x:hyperlinks>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/kartik1.xlsx
+++ b/kartik1.xlsx
@@ -7,9 +7,7 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="SheetMap" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Login Page" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <x:sheet name="Lookup" sheetId="5" r:id="rId5"/>
+    <x:sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -17,111 +15,203 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <x:si>
-    <x:t>Login Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SheetMap</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestsuiteName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ObjectName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Url</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UserId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Password</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+  <x:si>
+    <x:t>ExcelSheet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SheetName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sheet1</x:t>
   </x:si>
   <x:si>
     <x:t>new</x:t>
   </x:si>
   <x:si>
-    <x:t>Case - Search</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Iteration Value</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Field Names</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Search By</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Person</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lookup Sheet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestSuiteName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Object</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ParentField</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Iteration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ExcelSheet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SheetName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sheet1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lookup</x:t>
+    <x:t>TestScenarioID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestCaseID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Precondition</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestData</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steps</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UserAction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExpectedResult</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Approved/Rejected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReasonToReject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IsModified/Added</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_1.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Case - Search</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Needs to Login to Oracle Platform, from the browser with correct credentials</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Menu button.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to click on the Menu button.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Customer Information button.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to click on the Customer Information button.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Case button.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to click on the Case button.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Search button.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to click on the Search button.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select value from   Search By field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to select value for the Search By field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>click on the lookup for Person field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to click on lookup forPerson field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select value from Search By field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the Person Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Person Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select value from ID Type field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to select value for the ID Type field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the ID Number field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the ID Number field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select a Result.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to select a result if available.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>click on the lookup for Account field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to click on lookup forAccount field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 20</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="2">
+  <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="@"/>
   </x:numFmts>
-  <x:fonts count="8">
+  <x:fonts count="3">
     <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF0000FF"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:u val="single"/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF0000FF"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:b/>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -132,22 +222,7 @@
       <x:b/>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF008000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF0000FF"/>
+      <x:color rgb="FFFFFFFF"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
@@ -155,7 +230,7 @@
       <x:u val="single"/>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
-      <x:color rgb="FF0000FF"/>
+      <x:color theme="10"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
@@ -169,12 +244,12 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFFF00"/>
-        <x:bgColor rgb="FFFFFF00"/>
+        <x:fgColor rgb="FF0000FF"/>
+        <x:bgColor rgb="FF0000FF"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="4">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -186,6 +261,57 @@
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -193,76 +319,41 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="10">
+  <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="10">
+  <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -274,11 +365,20 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B4" totalsRowShown="0">
-  <x:autoFilter ref="A1:B4"/>
-  <x:tableColumns count="2">
-    <x:tableColumn id="1" name="ExcelSheet"/>
-    <x:tableColumn id="2" name="SheetName"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K22" totalsRowShown="0">
+  <x:autoFilter ref="A1:K22"/>
+  <x:tableColumns count="11">
+    <x:tableColumn id="1" name="TestScenarioID"/>
+    <x:tableColumn id="2" name="TestCaseID"/>
+    <x:tableColumn id="3" name="Description"/>
+    <x:tableColumn id="4" name="Precondition"/>
+    <x:tableColumn id="5" name="TestData"/>
+    <x:tableColumn id="6" name="Steps"/>
+    <x:tableColumn id="7" name="UserAction"/>
+    <x:tableColumn id="8" name="ExpectedResult"/>
+    <x:tableColumn id="9" name="Approved/Rejected"/>
+    <x:tableColumn id="10" name="ReasonToReject"/>
+    <x:tableColumn id="11" name="IsModified/Added"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -572,7 +672,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B4"/>
+  <x:dimension ref="A1:B2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -583,109 +683,24 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="2" t="s">
-        <x:v>19</x:v>
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="9" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="A3" s="9" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="9" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B4" s="2" t="s">
-        <x:v>22</x:v>
+      <x:c r="A2" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="4" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="A2" location="'Login Page'!A1" tooltip="Go to Login Page" display="Login Page"/>
-    <x:hyperlink ref="A3" location="'Sheet1'!A1" tooltip="Go to Sheet1" display="Sheet1"/>
-    <x:hyperlink ref="A4" location="'Lookup'!A1" tooltip="Go to Lookup" display="Lookup"/>
-  </x:hyperlinks>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="1">
-    <x:tablePart r:id="rId8"/>
-  </x:tableParts>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:F3"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:6">
-      <x:c r="A1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="2" t="s"/>
-      <x:c r="C1" s="2" t="s"/>
-      <x:c r="D1" s="2" t="s"/>
-      <x:c r="E1" s="2" t="s"/>
-      <x:c r="F1" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D2" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E2" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F2" s="2" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="A3" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s"/>
-      <x:c r="D3" s="2" t="s"/>
-      <x:c r="E3" s="2" t="s"/>
-      <x:c r="F3" s="2" t="s"/>
-    </x:row>
-  </x:sheetData>
-  <x:hyperlinks>
-    <x:hyperlink ref="F1" location="'SheetMap'!A1" tooltip="Go to SheetMap" display="SheetMap"/>
+    <x:hyperlink ref="A2" location="'Sheet1'!A1" display="Sheet1"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -695,133 +710,473 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F4"/>
+  <x:dimension ref="A1:K22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="3" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="19.550625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="74.550625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="40.130625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="59.980625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
-      <x:c r="A1" s="1" t="s">
+    <x:row r="1" spans="1:11">
+      <x:c r="A1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s"/>
-      <x:c r="C1" s="2" t="s"/>
-      <x:c r="D1" s="2" t="s"/>
-      <x:c r="E1" s="2" t="s"/>
-      <x:c r="F1" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="4" t="s">
+      <x:c r="E1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C2" s="4" t="s">
+      <x:c r="G1" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s"/>
-      <x:c r="E2" s="2" t="s"/>
-      <x:c r="F2" s="2" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="A3" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s"/>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="H1" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="s">
+      <x:c r="I1" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E3" s="2" t="s">
+      <x:c r="J1" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="F3" s="2" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="2" t="s"/>
-      <x:c r="B4" s="6" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s"/>
-      <x:c r="D4" s="2" t="s"/>
-      <x:c r="E4" s="2" t="s"/>
-      <x:c r="F4" s="2" t="s"/>
+      <x:c r="K1" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:11">
+      <x:c r="A2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s"/>
+      <x:c r="J2" s="0" t="s"/>
+      <x:c r="K2" s="0" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:11">
+      <x:c r="A3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s"/>
+      <x:c r="F3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s"/>
+      <x:c r="J3" s="0" t="s"/>
+      <x:c r="K3" s="0" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:11">
+      <x:c r="A4" s="0" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s"/>
+      <x:c r="F4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s"/>
+      <x:c r="J4" s="0" t="s"/>
+      <x:c r="K4" s="0" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:11">
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s"/>
+      <x:c r="F5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s"/>
+      <x:c r="J5" s="0" t="s"/>
+      <x:c r="K5" s="0" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:11">
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s"/>
+      <x:c r="F6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
+      <x:c r="K6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:11">
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s"/>
+      <x:c r="F7" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s"/>
+      <x:c r="J7" s="0" t="s"/>
+      <x:c r="K7" s="0" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:11">
+      <x:c r="A8" s="0" t="s"/>
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s"/>
+      <x:c r="F8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s"/>
+      <x:c r="J8" s="0" t="s"/>
+      <x:c r="K8" s="0" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:11">
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s"/>
+      <x:c r="F9" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s"/>
+      <x:c r="J9" s="0" t="s"/>
+      <x:c r="K9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:11">
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s"/>
+      <x:c r="F10" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+      <x:c r="K10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:11">
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s"/>
+      <x:c r="F11" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+      <x:c r="K11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:11">
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s"/>
+      <x:c r="F12" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+      <x:c r="K12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:11">
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s"/>
+      <x:c r="F13" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+      <x:c r="K13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:11">
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s"/>
+      <x:c r="F14" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+      <x:c r="K14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:11">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+      <x:c r="K15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:11">
+      <x:c r="A16" s="0" t="s"/>
+      <x:c r="B16" s="0" t="s"/>
+      <x:c r="C16" s="0" t="s"/>
+      <x:c r="D16" s="0" t="s"/>
+      <x:c r="E16" s="0" t="s"/>
+      <x:c r="F16" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+      <x:c r="K16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:11">
+      <x:c r="A17" s="0" t="s"/>
+      <x:c r="B17" s="0" t="s"/>
+      <x:c r="C17" s="0" t="s"/>
+      <x:c r="D17" s="0" t="s"/>
+      <x:c r="E17" s="0" t="s"/>
+      <x:c r="F17" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+      <x:c r="K17" s="0" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:11">
+      <x:c r="A18" s="0" t="s"/>
+      <x:c r="B18" s="0" t="s"/>
+      <x:c r="C18" s="0" t="s"/>
+      <x:c r="D18" s="0" t="s"/>
+      <x:c r="E18" s="0" t="s"/>
+      <x:c r="F18" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s"/>
+      <x:c r="J18" s="0" t="s"/>
+      <x:c r="K18" s="0" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:11">
+      <x:c r="A19" s="0" t="s"/>
+      <x:c r="B19" s="0" t="s"/>
+      <x:c r="C19" s="0" t="s"/>
+      <x:c r="D19" s="0" t="s"/>
+      <x:c r="E19" s="0" t="s"/>
+      <x:c r="F19" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s"/>
+      <x:c r="J19" s="0" t="s"/>
+      <x:c r="K19" s="0" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:11">
+      <x:c r="A20" s="0" t="s"/>
+      <x:c r="B20" s="0" t="s"/>
+      <x:c r="C20" s="0" t="s"/>
+      <x:c r="D20" s="0" t="s"/>
+      <x:c r="E20" s="0" t="s"/>
+      <x:c r="F20" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s"/>
+      <x:c r="J20" s="0" t="s"/>
+      <x:c r="K20" s="0" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:11">
+      <x:c r="A21" s="0" t="s"/>
+      <x:c r="B21" s="0" t="s"/>
+      <x:c r="C21" s="0" t="s"/>
+      <x:c r="D21" s="0" t="s"/>
+      <x:c r="E21" s="0" t="s"/>
+      <x:c r="F21" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s"/>
+      <x:c r="J21" s="0" t="s"/>
+      <x:c r="K21" s="0" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:11">
+      <x:c r="A22" s="0" t="s"/>
+      <x:c r="B22" s="0" t="s"/>
+      <x:c r="C22" s="0" t="s"/>
+      <x:c r="D22" s="0" t="s"/>
+      <x:c r="E22" s="0" t="s"/>
+      <x:c r="F22" s="0" t="s"/>
+      <x:c r="G22" s="0" t="s"/>
+      <x:c r="H22" s="0" t="s"/>
+      <x:c r="I22" s="0" t="s"/>
+      <x:c r="J22" s="0" t="s"/>
+      <x:c r="K22" s="0" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:hyperlinks>
-    <x:hyperlink ref="F1" location="'SheetMap'!A1" tooltip="Go to SheetMap" display="SheetMap"/>
-  </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:F2"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:6">
-      <x:c r="A1" s="7" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B1" s="2" t="s"/>
-      <x:c r="C1" s="2" t="s"/>
-      <x:c r="D1" s="2" t="s"/>
-      <x:c r="E1" s="2" t="s"/>
-      <x:c r="F1" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2" s="8" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B2" s="8" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C2" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D2" s="8" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E2" s="8" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F2" s="2" t="s"/>
-    </x:row>
-  </x:sheetData>
-  <x:hyperlinks>
-    <x:hyperlink ref="F1" location="'SheetMap'!A1" tooltip="Go to SheetMap" display="SheetMap"/>
-  </x:hyperlinks>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId6"/>
+  </x:tableParts>
 </x:worksheet>
 </file>
--- a/kartik1.xlsx
+++ b/kartik1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809F813A-20C4-4682-A525-5FA760489EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469C7DBF-CA0E-4EED-BB5D-D151E4EEE379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -667,7 +667,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/kartik1.xlsx
+++ b/kartik1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SnapProjects\Kartikpro1\kartik\Verification\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6134DB85-8215-458C-87D8-0E2EFEC5FE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DCCD2E-5123-4613-AF02-5ADA3156783C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="65">
   <si>
     <t>ExcelSheet</t>
   </si>
@@ -207,6 +207,15 @@
   </si>
   <si>
     <t>Step 20</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>wrong data</t>
   </si>
 </sst>
 </file>
@@ -660,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,6 +745,9 @@
       <c r="H2" t="s">
         <v>21</v>
       </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
@@ -747,6 +759,9 @@
       <c r="H3" t="s">
         <v>24</v>
       </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
@@ -758,6 +773,9 @@
       <c r="H4" t="s">
         <v>27</v>
       </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
@@ -769,6 +787,9 @@
       <c r="H5" t="s">
         <v>30</v>
       </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
@@ -780,6 +801,9 @@
       <c r="H6" t="s">
         <v>33</v>
       </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
@@ -791,6 +815,9 @@
       <c r="H7" t="s">
         <v>36</v>
       </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
@@ -802,6 +829,9 @@
       <c r="H8" t="s">
         <v>33</v>
       </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
@@ -813,6 +843,9 @@
       <c r="H9" t="s">
         <v>41</v>
       </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
@@ -824,6 +857,9 @@
       <c r="H10" t="s">
         <v>30</v>
       </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
@@ -835,6 +871,9 @@
       <c r="H11" t="s">
         <v>45</v>
       </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
@@ -846,6 +885,9 @@
       <c r="H12" t="s">
         <v>48</v>
       </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
@@ -857,6 +899,9 @@
       <c r="H13" t="s">
         <v>51</v>
       </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
@@ -868,6 +913,9 @@
       <c r="H14" t="s">
         <v>54</v>
       </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
@@ -879,6 +927,9 @@
       <c r="H15" t="s">
         <v>33</v>
       </c>
+      <c r="I15" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
@@ -890,8 +941,11 @@
       <c r="H16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
         <v>57</v>
       </c>
@@ -901,8 +955,14 @@
       <c r="H17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>58</v>
       </c>
@@ -912,8 +972,11 @@
       <c r="H18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>59</v>
       </c>
@@ -923,8 +986,11 @@
       <c r="H19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>60</v>
       </c>
@@ -934,8 +1000,11 @@
       <c r="H20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>61</v>
       </c>
@@ -944,6 +1013,9 @@
       </c>
       <c r="H21" t="s">
         <v>30</v>
+      </c>
+      <c r="I21" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
